--- a/biology/Médecine/Toubib_or_not_Toubib_(film)/Toubib_or_not_Toubib_(film).xlsx
+++ b/biology/Médecine/Toubib_or_not_Toubib_(film)/Toubib_or_not_Toubib_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toubib or not Toubib (Doctor in the House) est un film britannique réalisé par Ralph Thomas, sorti en 1954. Le scénario de Nicholas Phipps,  Richard Gordon et Ronald Wilkinson, est tiré du roman de Gordon, et suit un groupe d'étudiants à l'école médicale.
 Le film a été le plus populaire en 1954 au box-office en Grande-Bretagne. Son succès a généré six suites cinématographiques, et aussi une série télévisée et radio intitulé  Docteurs en folie .
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Sparrow est un étudiant en médecine fraîchement débarqué à l'hôpital St Swithin de Londres. Placé dans le même rang que trois ambitieux plus expérimentés que lui, il se trouve bientôt plongé dans l'entraînement médical tel qu'il se concevait dans les années 1950, un entraînement constitué par la drague, la consommation d’alcool et la conduite rapide de voitures de sport ! Mais Sir Lancelot Spratt, le médecin chef, veille, et est toujours là pour les rappeler à l’ordre…
 </t>
@@ -544,7 +558,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un film qui connut un grand succès populaire au Royaume-Uni, le premier d'une longue série.
 </t>
@@ -575,7 +591,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Toubib or not Toubib
 Titre original : Doctor in the House
@@ -619,7 +637,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dirk Bogarde : Simon Sparrow
 Muriel Pavlow : Joy Gibson
@@ -661,7 +681,9 @@
           <t>La saga du docteur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1954 : Toubib or not toubib (Doctor in the House)
 1955 : Rendez-vous à Rio (Doctor at Sea) de Ralph Thomas, avec Dirk Bogarde, James Robertson Justice, Brigitte Bardot
